--- a/labs/lab3/impact_assess_TableToExcel.xlsx
+++ b/labs/lab3/impact_assess_TableToExcel.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stumcg.stu\Documents\GISC480\labs\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stu/Desktop/uni/GISC480/labs/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929D154-2971-459D-A680-29959568982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022DB70-AE80-CC4F-ABB3-CE08DDD10B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="33880" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="intersect" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="intersect" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13173" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13257" uniqueCount="601">
   <si>
     <t>intersect.OBJECTID</t>
   </si>
@@ -1790,6 +1791,45 @@
   <si>
     <t>Sum of intersect.Shape_Area</t>
   </si>
+  <si>
+    <t>SITEMC_S1 Ecosystem Classification Code</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Right of Way</t>
+  </si>
+  <si>
+    <t>Study Area</t>
+  </si>
+  <si>
+    <t>Area (m^2)</t>
+  </si>
+  <si>
+    <t>Impacted ecosystems</t>
+  </si>
+  <si>
+    <t>RCROR_LIS</t>
+  </si>
+  <si>
+    <t>High Rated Habitat</t>
+  </si>
+  <si>
+    <t>Moderate Rated Habitat</t>
+  </si>
+  <si>
+    <t>Impact Area</t>
+  </si>
+  <si>
+    <t>RCROR_STLIA</t>
+  </si>
+  <si>
+    <t>MCOTO_FDLIG</t>
+  </si>
+  <si>
+    <t>MCOTO_STLIG</t>
+  </si>
 </sst>
 </file>
 
@@ -1812,7 +1852,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1825,8 +1865,20 @@
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1843,6 +1895,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1850,9 +1954,9 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1860,7 +1964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27945,7 +28064,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FEC16A0-1E60-4B37-BEDD-A33E42985530}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FEC16A0-1E60-4B37-BEDD-A33E42985530}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="253">
     <pivotField showAll="0"/>
@@ -28326,8 +28445,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C8F3234-13AF-4177-A302-27AC7EDA7597}" name="PivotTable9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H14:M19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{507CC19C-462A-4154-B031-0FAC8FE97CA5}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="253">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -28576,1048 +28695,10 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="32"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="243"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CA2A83D-D662-48DF-8859-F1015AA78C48}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A14:F19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="253">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="32"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="242"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475FECDB-AF3C-4664-B77D-FE806B8F4AE0}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:K8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="253">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="32"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="241"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{507CC19C-462A-4154-B031-0FAC8FE97CA5}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="253">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -29678,7 +28759,331 @@
   <colFields count="1">
     <field x="240"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C8F3234-13AF-4177-A302-27AC7EDA7597}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H14:K19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="253">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="32"/>
+  </rowFields>
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -29687,6 +29092,699 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="243"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CA2A83D-D662-48DF-8859-F1015AA78C48}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A14:D19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="253">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="32"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="242"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of intersect.Shape_Area" fld="238" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475FECDB-AF3C-4664-B77D-FE806B8F4AE0}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="253">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="32"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="241"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -29991,759 +30089,1557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B283CBA-869F-41E9-B86F-7A01A306622F}">
-  <dimension ref="A3:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A943E-B67B-2749-B800-1E2FCE6CDDF2}">
+  <dimension ref="B2:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>586</v>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M2" t="s">
+        <v>598</v>
+      </c>
+      <c r="R2" t="s">
+        <v>599</v>
+      </c>
+      <c r="W2" t="s">
+        <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="N4" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="X4" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>585</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C6" s="6">
         <v>10600.076232478161</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>10600.076232478161</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>58152.489975116841</v>
+      </c>
+      <c r="K6" s="6">
+        <v>58152.489975116841</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="N6" s="6">
+        <v>31193.8730003085</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>31193.8730003085</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="S6" s="6">
+        <v>4822.0320007685177</v>
+      </c>
+      <c r="T6" s="6">
+        <v>71008.897717703294</v>
+      </c>
+      <c r="U6" s="6">
+        <v>75830.929718471816</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="X6" s="6">
+        <v>31193.8730003085</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>8827.2792836593817</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>40021.15228396788</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C7" s="6">
+        <v>4741.0058236400382</v>
+      </c>
+      <c r="D7" s="6">
         <v>2694.265502292918</v>
       </c>
-      <c r="C6" s="5">
+      <c r="E7" s="6">
         <v>1055.7753956454021</v>
       </c>
-      <c r="D6" s="5">
-        <v>4741.0058236400382</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="F7" s="6">
         <v>8491.0467215783574</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>44716.233001381363</v>
+      </c>
+      <c r="K7" s="6">
+        <v>44716.233001381363</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="N7" s="6">
+        <v>9484.286917684296</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>9484.286917684296</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1397.569716510377</v>
+      </c>
+      <c r="T7" s="6">
+        <v>37920.085245993527</v>
+      </c>
+      <c r="U7" s="6">
+        <v>39317.654962503904</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="X7" s="6">
+        <v>9484.286917684296</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>7131.1958242849614</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>16615.482741969259</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C8" s="6">
         <v>40212.379244269861</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>40212.379244269861</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="I8" s="6">
+        <v>128385.43662226608</v>
+      </c>
+      <c r="J8" s="6">
+        <v>768484.90822898736</v>
+      </c>
+      <c r="K8" s="6">
+        <v>896870.34485125344</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="N8" s="6">
+        <v>365025.47706348938</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>365025.47706348938</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="S8" s="6">
+        <v>136751.21609741109</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1463762.4239547809</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1600513.6400521919</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="X8" s="6">
+        <v>365025.47706348938</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>490468.66163532832</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>855494.1386988177</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C9" s="6">
+        <v>105832.80797149919</v>
+      </c>
+      <c r="D9" s="6">
         <v>3293.9035373153779</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E9" s="6">
         <v>4245.9099333497898</v>
       </c>
-      <c r="D8" s="5">
-        <v>105832.80797149919</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="F9" s="6">
         <v>113372.62144216435</v>
       </c>
+      <c r="H9" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="I9" s="6">
+        <v>128385.43662226608</v>
+      </c>
+      <c r="J9" s="6">
+        <v>871353.63120548555</v>
+      </c>
+      <c r="K9" s="6">
+        <v>999739.06782775163</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="N9" s="6">
+        <v>405703.63698148215</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>405703.63698148215</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="S9" s="6">
+        <v>142970.81781468997</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1572691.4069184777</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1715662.2247331676</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="X9" s="6">
+        <v>405703.63698148215</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>506427.13674327265</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>912130.77372475481</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C10" s="6">
         <v>70796.678883305678</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>70796.678883305678</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C11" s="6">
+        <v>102671.38308673901</v>
+      </c>
+      <c r="D11" s="6">
         <v>7435.2738048606743</v>
       </c>
-      <c r="C10" s="5">
+      <c r="E11" s="6">
         <v>4222.2916505663343</v>
       </c>
-      <c r="D10" s="5">
-        <v>102671.38308673901</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="F11" s="6">
         <v>114328.94854216601</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="C12" s="6">
         <v>15018.191488898719</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>15018.191488898719</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C13" s="6">
         <v>120795.1975947537</v>
       </c>
-      <c r="E12" s="5">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>120795.1975947537</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="C14" s="6">
+        <v>71474.461902874842</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
         <v>810.95838529654657</v>
       </c>
-      <c r="D13" s="5">
-        <v>71474.461902874842</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="F14" s="6">
         <v>72285.420288171386</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C15" s="6">
+        <v>424184.9776673165</v>
+      </c>
+      <c r="D15" s="6">
         <v>28827.062160046538</v>
       </c>
-      <c r="C14" s="5">
+      <c r="E15" s="6">
         <v>9542.5090540614055</v>
       </c>
-      <c r="D14" s="5">
-        <v>424184.9776673165</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="F15" s="6">
         <v>462554.54888142447</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B15" s="5">
+      <c r="C16" s="6">
+        <v>383282.04277130601</v>
+      </c>
+      <c r="D16" s="6">
         <v>21626.01781510291</v>
       </c>
-      <c r="C15" s="5">
+      <c r="E16" s="6">
         <v>33536.690302924981</v>
       </c>
-      <c r="D15" s="5">
-        <v>383282.04277130601</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="F16" s="6">
         <v>438444.7508893339</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C17" s="6">
+        <v>235258.36730090261</v>
+      </c>
+      <c r="D17" s="6">
         <v>11617.838657805263</v>
       </c>
-      <c r="C16" s="5">
+      <c r="E17" s="6">
         <v>6441.7503530238337</v>
       </c>
-      <c r="D16" s="5">
-        <v>235258.36730090261</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="F17" s="6">
         <v>253317.95631173172</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="C18" s="6">
+        <v>28686.373810346173</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>2409.3519262322511</v>
       </c>
-      <c r="D17" s="5">
-        <v>28686.373810346173</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="F18" s="6">
         <v>31095.725736578424</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="C19" s="6">
+        <v>111630.82006909646</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>28.181124761608711</v>
       </c>
-      <c r="D18" s="5">
-        <v>111630.82006909646</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="F19" s="6">
         <v>111659.00119385807</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C20" s="6">
+        <v>148586.24058961371</v>
+      </c>
+      <c r="D20" s="6">
         <v>12851.389625054557</v>
       </c>
-      <c r="C19" s="5">
+      <c r="E20" s="6">
         <v>6252.7220645569187</v>
       </c>
-      <c r="D19" s="5">
-        <v>148586.24058961371</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="F20" s="6">
         <v>167690.35227922519</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="5">
+      <c r="C21" s="6">
+        <v>178107.38788775291</v>
+      </c>
+      <c r="D21" s="6">
         <v>4874.9360698061446</v>
       </c>
-      <c r="C20" s="5">
+      <c r="E21" s="6">
         <v>16410.41857425238</v>
       </c>
-      <c r="D20" s="5">
-        <v>178107.38788775291</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="F21" s="6">
         <v>199392.74253181144</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C22" s="6">
         <v>11400.808116519691</v>
       </c>
-      <c r="E21" s="5">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <v>11400.808116519691</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+      <c r="C23" s="6">
         <v>24122.567007290738</v>
       </c>
-      <c r="E22" s="5">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
         <v>24122.567007290738</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C24" s="6">
+        <v>2087401.7674486039</v>
+      </c>
+      <c r="D24" s="6">
         <v>93220.687172284379</v>
       </c>
-      <c r="C23" s="5">
+      <c r="E24" s="6">
         <v>84956.558764671456</v>
       </c>
-      <c r="D23" s="5">
-        <v>2087401.7674486039</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="F24" s="6">
         <v>2265579.0133855594</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="X4:Z4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2D90ED-B96B-4A28-AF10-A6F2A5F1E832}">
-  <dimension ref="A3:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B283CBA-869F-41E9-B86F-7A01A306622F}">
+  <dimension ref="A3:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>586</v>
-      </c>
+      <c r="J3" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
         <v>585</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="H4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>35068.197197167545</v>
-      </c>
-      <c r="D5" s="5">
-        <v>58152.489975116841</v>
-      </c>
-      <c r="E5" s="5">
+        <v>567</v>
+      </c>
+      <c r="D5">
+        <v>10600.076232478161</v>
+      </c>
+      <c r="E5">
+        <v>10600.076232478161</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J5" s="6">
+        <v>10600.076232478161</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>10600.076232478161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6">
+        <v>2694.265502292918</v>
+      </c>
+      <c r="C6">
+        <v>1055.7753956454021</v>
+      </c>
+      <c r="D6">
+        <v>4741.0058236400382</v>
+      </c>
+      <c r="E6">
+        <v>8491.0467215783574</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4741.0058236400382</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2694.265502292918</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1055.7753956454021</v>
+      </c>
+      <c r="M6" s="6">
+        <v>8491.0467215783574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>40212.379244269861</v>
+      </c>
+      <c r="E7">
+        <v>40212.379244269861</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J7" s="6">
+        <v>40212.379244269861</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6">
+        <v>40212.379244269861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8">
+        <v>3293.9035373153779</v>
+      </c>
+      <c r="C8">
+        <v>4245.9099333497898</v>
+      </c>
+      <c r="D8">
+        <v>105832.80797149919</v>
+      </c>
+      <c r="E8">
+        <v>113372.62144216435</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="6">
+        <v>105832.80797149919</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3293.9035373153779</v>
+      </c>
+      <c r="L8" s="6">
+        <v>4245.9099333497898</v>
+      </c>
+      <c r="M8" s="6">
+        <v>113372.62144216435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9">
+        <v>70796.678883305678</v>
+      </c>
+      <c r="E9">
+        <v>70796.678883305678</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J9" s="6">
+        <v>70796.678883305678</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6">
+        <v>70796.678883305678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10">
+        <v>7435.2738048606743</v>
+      </c>
+      <c r="C10">
+        <v>4222.2916505663343</v>
+      </c>
+      <c r="D10">
+        <v>102671.38308673901</v>
+      </c>
+      <c r="E10">
+        <v>114328.94854216601</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" s="6">
+        <v>102671.38308673901</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7435.2738048606743</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4222.2916505663343</v>
+      </c>
+      <c r="M10" s="6">
+        <v>114328.94854216601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11">
+        <v>15018.191488898719</v>
+      </c>
+      <c r="E11">
+        <v>15018.191488898719</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" s="6">
+        <v>15018.191488898719</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
+        <v>15018.191488898719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12">
+        <v>120795.1975947537</v>
+      </c>
+      <c r="E12">
+        <v>120795.1975947537</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J12" s="6">
+        <v>120795.1975947537</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
+        <v>120795.1975947537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13">
+        <v>810.95838529654657</v>
+      </c>
+      <c r="D13">
+        <v>71474.461902874842</v>
+      </c>
+      <c r="E13">
+        <v>72285.420288171386</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J13" s="6">
+        <v>71474.461902874842</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <v>810.95838529654657</v>
+      </c>
+      <c r="M13" s="6">
+        <v>72285.420288171386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14">
+        <v>28827.062160046538</v>
+      </c>
+      <c r="C14">
+        <v>9542.5090540614055</v>
+      </c>
+      <c r="D14">
+        <v>424184.9776673165</v>
+      </c>
+      <c r="E14">
+        <v>462554.54888142447</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="6">
+        <v>424184.9776673165</v>
+      </c>
+      <c r="K14" s="6">
+        <v>28827.062160046538</v>
+      </c>
+      <c r="L14" s="6">
+        <v>9542.5090540614055</v>
+      </c>
+      <c r="M14" s="6">
+        <v>462554.54888142447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15">
+        <v>21626.01781510291</v>
+      </c>
+      <c r="C15">
+        <v>33536.690302924981</v>
+      </c>
+      <c r="D15">
+        <v>383282.04277130601</v>
+      </c>
+      <c r="E15">
+        <v>438444.7508893339</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="6">
+        <v>383282.04277130601</v>
+      </c>
+      <c r="K15" s="6">
+        <v>21626.01781510291</v>
+      </c>
+      <c r="L15" s="6">
+        <v>33536.690302924981</v>
+      </c>
+      <c r="M15" s="6">
+        <v>438444.7508893339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16">
+        <v>11617.838657805263</v>
+      </c>
+      <c r="C16">
+        <v>6441.7503530238337</v>
+      </c>
+      <c r="D16">
+        <v>235258.36730090261</v>
+      </c>
+      <c r="E16">
+        <v>253317.95631173172</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" s="6">
+        <v>235258.36730090261</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11617.838657805263</v>
+      </c>
+      <c r="L16" s="6">
+        <v>6441.7503530238337</v>
+      </c>
+      <c r="M16" s="6">
+        <v>253317.95631173172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17">
+        <v>2409.3519262322511</v>
+      </c>
+      <c r="D17">
+        <v>28686.373810346173</v>
+      </c>
+      <c r="E17">
+        <v>31095.725736578424</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="6">
+        <v>28686.373810346173</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>2409.3519262322511</v>
+      </c>
+      <c r="M17" s="6">
+        <v>31095.725736578424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18">
+        <v>28.181124761608711</v>
+      </c>
+      <c r="D18">
+        <v>111630.82006909646</v>
+      </c>
+      <c r="E18">
+        <v>111659.00119385807</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="6">
+        <v>111630.82006909646</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
+        <v>28.181124761608711</v>
+      </c>
+      <c r="M18" s="6">
+        <v>111659.00119385807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19">
+        <v>12851.389625054557</v>
+      </c>
+      <c r="C19">
+        <v>6252.7220645569187</v>
+      </c>
+      <c r="D19">
+        <v>148586.24058961371</v>
+      </c>
+      <c r="E19">
+        <v>167690.35227922519</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J19" s="6">
+        <v>148586.24058961371</v>
+      </c>
+      <c r="K19" s="6">
+        <v>12851.389625054557</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6252.7220645569187</v>
+      </c>
+      <c r="M19" s="6">
+        <v>167690.35227922519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20">
+        <v>4874.9360698061446</v>
+      </c>
+      <c r="C20">
+        <v>16410.41857425238</v>
+      </c>
+      <c r="D20">
+        <v>178107.38788775291</v>
+      </c>
+      <c r="E20">
+        <v>199392.74253181144</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" s="6">
+        <v>178107.38788775291</v>
+      </c>
+      <c r="K20" s="6">
+        <v>4874.9360698061446</v>
+      </c>
+      <c r="L20" s="6">
+        <v>16410.41857425238</v>
+      </c>
+      <c r="M20" s="6">
+        <v>199392.74253181144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21">
+        <v>11400.808116519691</v>
+      </c>
+      <c r="E21">
+        <v>11400.808116519691</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J21" s="6">
+        <v>11400.808116519691</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
+        <v>11400.808116519691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22">
+        <v>24122.567007290738</v>
+      </c>
+      <c r="E22">
+        <v>24122.567007290738</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J22" s="6">
+        <v>24122.567007290738</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
+        <v>24122.567007290738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B23">
         <v>93220.687172284379</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="5">
-        <v>31193.8730003085</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4874.9360698061446</v>
-      </c>
-      <c r="J5" s="5">
-        <v>57151.878102169736</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="C23">
+        <v>84956.558764671456</v>
+      </c>
+      <c r="D23">
+        <v>2087401.7674486039</v>
+      </c>
+      <c r="E23">
+        <v>2265579.0133855594</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2087401.7674486039</v>
+      </c>
+      <c r="K23" s="6">
         <v>93220.687172284379</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>40240.325763290079</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44716.233001381355</v>
-      </c>
-      <c r="E6" s="5">
-        <v>84956.558764671441</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="H6" s="5">
-        <v>9484.286917684296</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2203.6980626989362</v>
-      </c>
-      <c r="J6" s="5">
-        <v>73268.573784288208</v>
-      </c>
-      <c r="K6" s="5">
-        <v>84956.558764671441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" s="5">
-        <v>128385.43662226608</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1190531.4225973503</v>
-      </c>
-      <c r="D7" s="5">
-        <v>768484.90822898748</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2087401.7674486036</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="H7" s="5">
-        <v>365025.47706348938</v>
-      </c>
-      <c r="I7" s="5">
-        <v>144525.06710200873</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1577851.223283106</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2087401.7674486041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B8" s="5">
-        <v>128385.43662226608</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1265839.945557808</v>
-      </c>
-      <c r="D8" s="5">
-        <v>871353.63120548567</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="L23" s="6">
+        <v>84956.558764671456</v>
+      </c>
+      <c r="M23" s="6">
         <v>2265579.0133855594</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="H8" s="5">
-        <v>405703.63698148215</v>
-      </c>
-      <c r="I8" s="5">
-        <v>151603.70123451381</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1708271.6751695639</v>
-      </c>
-      <c r="K8" s="5">
-        <v>2265579.0133855599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" t="s">
-        <v>585</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="I15" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" t="s">
-        <v>272</v>
-      </c>
-      <c r="K15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L15" t="s">
-        <v>282</v>
-      </c>
-      <c r="M15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4822.0320007685177</v>
-      </c>
-      <c r="C16" s="5">
-        <v>17389.757453812585</v>
-      </c>
-      <c r="D16" s="5">
-        <v>71008.897717703294</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>93220.687172284393</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="5">
-        <v>31193.8730003085</v>
-      </c>
-      <c r="J16" s="5">
-        <v>2694.265502292918</v>
-      </c>
-      <c r="K16" s="5">
-        <v>8827.2792836593817</v>
-      </c>
-      <c r="L16" s="5">
-        <v>50505.269386023581</v>
-      </c>
-      <c r="M16" s="5">
-        <v>93220.687172284379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1397.569716510377</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45638.903802167551</v>
-      </c>
-      <c r="D17" s="5">
-        <v>37920.085245993527</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>84956.558764671456</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="I17" s="5">
-        <v>9484.286917684296</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1866.7337809419487</v>
-      </c>
-      <c r="K17" s="5">
-        <v>7131.1958242849614</v>
-      </c>
-      <c r="L17" s="5">
-        <v>66474.342241760241</v>
-      </c>
-      <c r="M17" s="5">
-        <v>84956.558764671441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="5">
-        <v>136751.21609741109</v>
-      </c>
-      <c r="C18" s="5">
-        <v>456671.8490238759</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1463762.4239547809</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30216.278372536162</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2087401.7674486041</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="I18" s="5">
-        <v>365025.47706348938</v>
-      </c>
-      <c r="J18" s="5">
-        <v>237771.32679139567</v>
-      </c>
-      <c r="K18" s="5">
-        <v>490468.66163532814</v>
-      </c>
-      <c r="L18" s="5">
-        <v>994136.30195839086</v>
-      </c>
-      <c r="M18" s="5">
-        <v>2087401.7674486041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B19" s="5">
-        <v>142970.81781468997</v>
-      </c>
-      <c r="C19" s="5">
-        <v>519700.51027985604</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1572691.4069184777</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30216.278372536162</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2265579.0133855599</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="I19" s="5">
-        <v>405703.63698148215</v>
-      </c>
-      <c r="J19" s="5">
-        <v>242332.32607463055</v>
-      </c>
-      <c r="K19" s="5">
-        <v>506427.13674327248</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1111115.9135861746</v>
-      </c>
-      <c r="M19" s="5">
-        <v>2265579.0133855599</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2D90ED-B96B-4A28-AF10-A6F2A5F1E832}">
+  <dimension ref="A3:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
+        <v>58152.489975116841</v>
+      </c>
+      <c r="D5" s="9">
+        <v>58152.489975116841</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="9">
+        <v>31193.8730003085</v>
+      </c>
+      <c r="I5" s="9">
+        <v>31193.8730003085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
+        <v>44716.233001381363</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44716.233001381363</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9484.286917684296</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9484.286917684296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="9">
+        <v>128385.43662226608</v>
+      </c>
+      <c r="C7" s="9">
+        <v>768484.90822898736</v>
+      </c>
+      <c r="D7" s="9">
+        <v>896870.34485125344</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7" s="9">
+        <v>365025.47706348938</v>
+      </c>
+      <c r="I7" s="9">
+        <v>365025.47706348938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="9">
+        <v>128385.43662226608</v>
+      </c>
+      <c r="C8" s="9">
+        <v>871353.63120548555</v>
+      </c>
+      <c r="D8" s="9">
+        <v>999739.06782775163</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H8" s="9">
+        <v>405703.63698148215</v>
+      </c>
+      <c r="I8" s="9">
+        <v>405703.63698148215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>585</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4822.0320007685177</v>
+      </c>
+      <c r="C16" s="9">
+        <v>71008.897717703294</v>
+      </c>
+      <c r="D16" s="9">
+        <v>75830.929718471816</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" s="9">
+        <v>31193.8730003085</v>
+      </c>
+      <c r="J16" s="9">
+        <v>8827.2792836593817</v>
+      </c>
+      <c r="K16" s="9">
+        <v>40021.15228396788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1397.569716510377</v>
+      </c>
+      <c r="C17" s="9">
+        <v>37920.085245993527</v>
+      </c>
+      <c r="D17" s="9">
+        <v>39317.654962503904</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I17" s="9">
+        <v>9484.286917684296</v>
+      </c>
+      <c r="J17" s="9">
+        <v>7131.1958242849614</v>
+      </c>
+      <c r="K17" s="9">
+        <v>16615.482741969259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="9">
+        <v>136751.21609741109</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1463762.4239547809</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1600513.6400521919</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I18" s="9">
+        <v>365025.47706348938</v>
+      </c>
+      <c r="J18" s="9">
+        <v>490468.66163532832</v>
+      </c>
+      <c r="K18" s="9">
+        <v>855494.1386988177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B19" s="9">
+        <v>142970.81781468997</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1572691.4069184777</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1715662.2247331676</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="I19" s="9">
+        <v>405703.63698148215</v>
+      </c>
+      <c r="J19" s="9">
+        <v>506427.13674327265</v>
+      </c>
+      <c r="K19" s="9">
+        <v>912130.77372475481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IS100"/>
   <sheetViews>
@@ -30751,23 +31647,23 @@
       <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="31.5546875" customWidth="1"/>
+    <col min="33" max="33" width="31.5" customWidth="1"/>
     <col min="34" max="125" width="0" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="36.77734375" customWidth="1"/>
+    <col min="126" max="126" width="36.83203125" customWidth="1"/>
     <col min="127" max="239" width="0" hidden="1" customWidth="1"/>
     <col min="240" max="240" width="30.6640625" customWidth="1"/>
-    <col min="241" max="241" width="33.77734375" customWidth="1"/>
-    <col min="242" max="242" width="35.109375" customWidth="1"/>
-    <col min="243" max="243" width="36.44140625" customWidth="1"/>
-    <col min="244" max="244" width="34.21875" customWidth="1"/>
-    <col min="245" max="245" width="33.21875" hidden="1" customWidth="1"/>
+    <col min="241" max="241" width="33.83203125" customWidth="1"/>
+    <col min="242" max="242" width="35.1640625" customWidth="1"/>
+    <col min="243" max="243" width="36.5" customWidth="1"/>
+    <col min="244" max="244" width="34.1640625" customWidth="1"/>
+    <col min="245" max="245" width="33.1640625" hidden="1" customWidth="1"/>
     <col min="246" max="253" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:253" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31528,7 +32424,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32226,7 +33122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32945,7 +33841,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33643,7 +34539,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34356,7 +35252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -35057,7 +35953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35764,7 +36660,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -36468,7 +37364,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -37181,7 +38077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37888,7 +38784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38592,7 +39488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -39302,7 +40198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -39985,7 +40881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -40692,7 +41588,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -41360,7 +42256,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -42076,7 +42972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -42783,7 +43679,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -43502,7 +44398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -44200,7 +45096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -44874,7 +45770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -45593,7 +46489,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -46291,7 +47187,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -47004,7 +47900,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -47708,7 +48604,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -48418,7 +49314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -49119,7 +50015,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -49817,7 +50713,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -50524,7 +51420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -51177,7 +52073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -51860,7 +52756,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -52564,7 +53460,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -53271,7 +54167,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -53966,7 +54862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -54634,7 +55530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -55347,7 +56243,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -56039,7 +56935,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -56746,7 +57642,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -57444,7 +58340,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -58112,7 +59008,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -58819,7 +59715,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -59535,7 +60431,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -60239,7 +61135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -60949,7 +61845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -61668,7 +62564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -62357,7 +63253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -63046,7 +63942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -63738,7 +64634,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -64448,7 +65344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -65158,7 +66054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -65838,7 +66734,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -66551,7 +67447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -67258,7 +68154,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -67962,7 +68858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -68669,7 +69565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -69376,7 +70272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -70089,7 +70985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -70802,7 +71698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -71503,7 +72399,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -72213,7 +73109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -72923,7 +73819,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -73636,7 +74532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -74349,7 +75245,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -75056,7 +75952,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -75766,7 +76662,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -76476,7 +77372,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -77171,7 +78067,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -77860,7 +78756,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -78567,7 +79463,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -79283,7 +80179,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -79987,7 +80883,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -80661,7 +81557,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -81338,7 +82234,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -82015,7 +82911,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -82716,7 +83612,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -83420,7 +84316,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -84073,7 +84969,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -84762,7 +85658,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -85472,7 +86368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -86167,7 +87063,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -86820,7 +87716,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -87518,7 +88414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -88237,7 +89133,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -88935,7 +89831,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -89648,7 +90544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -90352,7 +91248,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -91062,7 +91958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -91763,7 +92659,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -92470,7 +93366,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -93153,7 +94049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -93857,7 +94753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -94564,7 +95460,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -95232,7 +96128,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -95945,7 +96841,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -96637,7 +97533,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -97311,7 +98207,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -98018,7 +98914,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -98734,7 +99630,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -99387,7 +100283,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -100103,7 +100999,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:253" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:253" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
